--- a/Code/Results/Cases/Case_0_127/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_127/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.09878262343314</v>
+        <v>13.85067314828899</v>
       </c>
       <c r="D2">
-        <v>10.70345662246537</v>
+        <v>11.70583913879577</v>
       </c>
       <c r="E2">
-        <v>11.33040202948901</v>
+        <v>14.27620259265731</v>
       </c>
       <c r="F2">
-        <v>64.79533953950639</v>
+        <v>58.23728371935554</v>
       </c>
       <c r="G2">
-        <v>2.097823447222678</v>
+        <v>3.779119303145857</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>24.3027004088381</v>
+        <v>24.52572770006956</v>
       </c>
       <c r="L2">
-        <v>6.059522712074572</v>
+        <v>9.572060380437346</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11.48283393165868</v>
+        <v>13.77958305940087</v>
       </c>
       <c r="D3">
-        <v>10.34422935068886</v>
+        <v>11.63094892508382</v>
       </c>
       <c r="E3">
-        <v>10.83803458209705</v>
+        <v>14.24035418084026</v>
       </c>
       <c r="F3">
-        <v>61.23234685547777</v>
+        <v>57.36330371113632</v>
       </c>
       <c r="G3">
-        <v>2.116470468501052</v>
+        <v>3.784890121893208</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>22.49228431505492</v>
+        <v>24.32282442107993</v>
       </c>
       <c r="L3">
-        <v>5.952078905736705</v>
+        <v>9.586209900224526</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>11.10591477209089</v>
+        <v>13.73972747118372</v>
       </c>
       <c r="D4">
-        <v>10.12806257456365</v>
+        <v>11.58567330129396</v>
       </c>
       <c r="E4">
-        <v>10.54069029631365</v>
+        <v>14.22205670809225</v>
       </c>
       <c r="F4">
-        <v>59.02892971549449</v>
+        <v>56.83115509786165</v>
       </c>
       <c r="G4">
-        <v>2.127992762463594</v>
+        <v>3.788605825818031</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>21.52808182872715</v>
+        <v>24.20754881628714</v>
       </c>
       <c r="L4">
-        <v>5.891420323834464</v>
+        <v>9.596698906697124</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>10.95263921761951</v>
+        <v>13.72444831557754</v>
       </c>
       <c r="D5">
-        <v>10.04095594592091</v>
+        <v>11.5674035269186</v>
       </c>
       <c r="E5">
-        <v>10.42074197878344</v>
+        <v>14.21553521735095</v>
       </c>
       <c r="F5">
-        <v>58.12682831890913</v>
+        <v>56.61561534877201</v>
       </c>
       <c r="G5">
-        <v>2.132717080066561</v>
+        <v>3.790163581357405</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>21.13181880989308</v>
+        <v>24.16296045073804</v>
       </c>
       <c r="L5">
-        <v>5.867960820682862</v>
+        <v>9.601424923188132</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.92720844275275</v>
+        <v>13.72196955788665</v>
       </c>
       <c r="D6">
-        <v>10.02654818539646</v>
+        <v>11.56438080746714</v>
       </c>
       <c r="E6">
-        <v>10.40089833563826</v>
+        <v>14.21450880557876</v>
       </c>
       <c r="F6">
-        <v>57.97678081634421</v>
+        <v>56.57991002321746</v>
       </c>
       <c r="G6">
-        <v>2.133503576158359</v>
+        <v>3.790424883949386</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>21.06582028243352</v>
+        <v>24.15570204254071</v>
       </c>
       <c r="L6">
-        <v>5.864139365002576</v>
+        <v>9.6022369159367</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>11.10384629941084</v>
+        <v>13.73951750489003</v>
       </c>
       <c r="D7">
-        <v>10.12688398886682</v>
+        <v>11.58542617519076</v>
       </c>
       <c r="E7">
-        <v>10.53906769385459</v>
+        <v>14.22196497097555</v>
       </c>
       <c r="F7">
-        <v>59.01678072179614</v>
+        <v>56.82824268132601</v>
       </c>
       <c r="G7">
-        <v>2.128056346370872</v>
+        <v>3.788626657516721</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>21.52275112947119</v>
+        <v>24.20693775758014</v>
       </c>
       <c r="L7">
-        <v>5.891098936842918</v>
+        <v>9.596760816339305</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>11.88612147051185</v>
+        <v>13.82537925375347</v>
       </c>
       <c r="D8">
-        <v>10.57859904795859</v>
+        <v>11.67987185044963</v>
       </c>
       <c r="E8">
-        <v>11.15957205772503</v>
+        <v>14.26307221847948</v>
       </c>
       <c r="F8">
-        <v>63.56984105693195</v>
+        <v>57.93512007887056</v>
       </c>
       <c r="G8">
-        <v>2.104244621793604</v>
+        <v>3.781073436406262</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>23.67574045140828</v>
+        <v>24.45386452858575</v>
       </c>
       <c r="L8">
-        <v>6.021324634113189</v>
+        <v>9.576564573130169</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.43372443872958</v>
+        <v>14.02342681607906</v>
       </c>
       <c r="D9">
-        <v>11.50662608924394</v>
+        <v>11.87056542456591</v>
       </c>
       <c r="E9">
-        <v>12.41971822411417</v>
+        <v>14.37306271781191</v>
       </c>
       <c r="F9">
-        <v>72.40326919020119</v>
+        <v>60.13284572615826</v>
       </c>
       <c r="G9">
-        <v>2.057559719376468</v>
+        <v>3.767619184080336</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>28.08049627191227</v>
+        <v>25.00963187690923</v>
       </c>
       <c r="L9">
-        <v>6.322896417622129</v>
+        <v>9.551305388873722</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>14.59021619636671</v>
+        <v>14.18635364799029</v>
       </c>
       <c r="D10">
-        <v>12.22804761977241</v>
+        <v>12.01382645067255</v>
       </c>
       <c r="E10">
-        <v>13.3825986844408</v>
+        <v>14.47161091810936</v>
       </c>
       <c r="F10">
-        <v>78.9105623778469</v>
+        <v>61.75281657428474</v>
       </c>
       <c r="G10">
-        <v>2.022278806228555</v>
+        <v>3.758547479728166</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>31.19464019350911</v>
+        <v>25.45816083498346</v>
       </c>
       <c r="L10">
-        <v>6.579649664629714</v>
+        <v>9.541564868760586</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>15.12535550272037</v>
+        <v>14.26408703142667</v>
       </c>
       <c r="D11">
-        <v>12.56941039632497</v>
+        <v>12.07963885073523</v>
       </c>
       <c r="E11">
-        <v>13.83301627471098</v>
+        <v>14.52023888905549</v>
       </c>
       <c r="F11">
-        <v>81.90362121997732</v>
+        <v>62.48858000176957</v>
       </c>
       <c r="G11">
-        <v>2.005717007693252</v>
+        <v>3.754593957086378</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>32.60031217333182</v>
+        <v>25.67013579783285</v>
       </c>
       <c r="L11">
-        <v>6.706247876221974</v>
+        <v>9.539062260670716</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.32991967937398</v>
+        <v>14.2940267033328</v>
       </c>
       <c r="D12">
-        <v>12.70111233879538</v>
+        <v>12.10464800408007</v>
       </c>
       <c r="E12">
-        <v>14.00591784979228</v>
+        <v>14.53919291839818</v>
       </c>
       <c r="F12">
-        <v>83.04533329157022</v>
+        <v>62.76683361687009</v>
       </c>
       <c r="G12">
-        <v>1.999338231494852</v>
+        <v>3.753121526026335</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>33.13279445907435</v>
+        <v>25.75147512722769</v>
       </c>
       <c r="L12">
-        <v>6.755843507446102</v>
+        <v>9.538392871069796</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>15.28576548122907</v>
+        <v>14.2875565279191</v>
       </c>
       <c r="D13">
-        <v>12.6726291894528</v>
+        <v>12.09925802854014</v>
       </c>
       <c r="E13">
-        <v>13.96856532941467</v>
+        <v>14.53508693897667</v>
       </c>
       <c r="F13">
-        <v>82.79900541209525</v>
+        <v>62.70692597213653</v>
       </c>
       <c r="G13">
-        <v>2.000717418759988</v>
+        <v>3.753437546324252</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>33.01807299933736</v>
+        <v>25.73391087365728</v>
       </c>
       <c r="L13">
-        <v>6.7450838270105</v>
+        <v>9.538524644004937</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>15.14214231642491</v>
+        <v>14.26654018839475</v>
       </c>
       <c r="D14">
-        <v>12.58019308025552</v>
+        <v>12.08169464587243</v>
       </c>
       <c r="E14">
-        <v>13.8471902134667</v>
+        <v>14.52178747267073</v>
       </c>
       <c r="F14">
-        <v>81.99735920228468</v>
+        <v>62.51148049214322</v>
       </c>
       <c r="G14">
-        <v>2.005194595847988</v>
+        <v>3.754472325950581</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>32.64410417621681</v>
+        <v>25.67680662968532</v>
       </c>
       <c r="L14">
-        <v>6.710293278129003</v>
+        <v>9.539001606780763</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>15.05444101945451</v>
+        <v>14.25373216934634</v>
       </c>
       <c r="D15">
-        <v>12.52390936387139</v>
+        <v>12.07094780137712</v>
       </c>
       <c r="E15">
-        <v>13.77316891179533</v>
+        <v>14.51371124039076</v>
       </c>
       <c r="F15">
-        <v>81.50753640445444</v>
+        <v>62.39171136526662</v>
       </c>
       <c r="G15">
-        <v>2.007921883404097</v>
+        <v>3.755109365854728</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>32.41512251543296</v>
+        <v>25.64196566972176</v>
       </c>
       <c r="L15">
-        <v>6.689207250619006</v>
+        <v>9.539330030321581</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>14.55547349136942</v>
+        <v>14.18134499505196</v>
       </c>
       <c r="D16">
-        <v>12.20604645847363</v>
+        <v>12.00953796422845</v>
       </c>
       <c r="E16">
-        <v>13.35345535994668</v>
+        <v>14.46850885671782</v>
       </c>
       <c r="F16">
-        <v>78.7158997360382</v>
+        <v>61.70469230814918</v>
       </c>
       <c r="G16">
-        <v>2.023348187927618</v>
+        <v>3.758809318178947</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>31.10269509360675</v>
+        <v>25.44446134817058</v>
       </c>
       <c r="L16">
-        <v>6.571592836348769</v>
+        <v>9.541767311170366</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>14.25206352633663</v>
+        <v>14.13785289748033</v>
       </c>
       <c r="D17">
-        <v>12.01475899666058</v>
+        <v>11.9720260954897</v>
       </c>
       <c r="E17">
-        <v>13.09948607102539</v>
+        <v>14.44174707061081</v>
       </c>
       <c r="F17">
-        <v>77.01393026345174</v>
+        <v>61.28278785463736</v>
       </c>
       <c r="G17">
-        <v>2.032659369632081</v>
+        <v>3.761123327263604</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>30.29586054988386</v>
+        <v>25.32528088841382</v>
       </c>
       <c r="L17">
-        <v>6.502104222861757</v>
+        <v>9.543757146424845</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>14.07835352276275</v>
+        <v>14.11317890843372</v>
       </c>
       <c r="D18">
-        <v>11.90593610278507</v>
+        <v>11.9505110253703</v>
       </c>
       <c r="E18">
-        <v>12.95453355522393</v>
+        <v>14.42671231862743</v>
       </c>
       <c r="F18">
-        <v>76.03782174804363</v>
+        <v>61.04002092242391</v>
       </c>
       <c r="G18">
-        <v>2.037969139630789</v>
+        <v>3.762470604180904</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>29.83062862196819</v>
+        <v>25.25748297641166</v>
       </c>
       <c r="L18">
-        <v>6.463040422546119</v>
+        <v>9.545083103505531</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>14.01966088916671</v>
+        <v>14.10488385852524</v>
       </c>
       <c r="D19">
-        <v>11.86928289136086</v>
+        <v>11.9432369742781</v>
       </c>
       <c r="E19">
-        <v>12.90563432412247</v>
+        <v>14.4216834656308</v>
       </c>
       <c r="F19">
-        <v>75.7077217538307</v>
+        <v>60.95781332064624</v>
       </c>
       <c r="G19">
-        <v>2.039759954363239</v>
+        <v>3.762929578960858</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>29.67286350190355</v>
+        <v>25.23465901478771</v>
       </c>
       <c r="L19">
-        <v>6.44996299325284</v>
+        <v>9.545563183511414</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>14.28427510080253</v>
+        <v>14.14244747566851</v>
       </c>
       <c r="D20">
-        <v>12.0349942290502</v>
+        <v>11.97601304385462</v>
       </c>
       <c r="E20">
-        <v>13.12640181345705</v>
+        <v>14.44455890918249</v>
       </c>
       <c r="F20">
-        <v>77.1947937974533</v>
+        <v>61.32771194958996</v>
       </c>
       <c r="G20">
-        <v>2.031673130334275</v>
+        <v>3.760875309639312</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>30.3818585131073</v>
+        <v>25.33789058817491</v>
       </c>
       <c r="L20">
-        <v>6.509406260938996</v>
+        <v>9.543526537565727</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>15.18426979230665</v>
+        <v>14.27269966154724</v>
       </c>
       <c r="D21">
-        <v>12.60727255288291</v>
+        <v>12.08685110502453</v>
       </c>
       <c r="E21">
-        <v>13.88277211688416</v>
+        <v>14.52567925750363</v>
       </c>
       <c r="F21">
-        <v>82.23256205539437</v>
+        <v>62.56889898052759</v>
       </c>
       <c r="G21">
-        <v>2.003882763613006</v>
+        <v>3.754167718060484</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>32.75392626219563</v>
+        <v>25.69355110323733</v>
       </c>
       <c r="L21">
-        <v>6.720464835071054</v>
+        <v>9.538853950949974</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>15.78411859592468</v>
+        <v>14.36075480556086</v>
       </c>
       <c r="D22">
-        <v>12.99587289749495</v>
+        <v>12.159797299782</v>
       </c>
       <c r="E22">
-        <v>14.39115414086145</v>
+        <v>14.5818381253173</v>
       </c>
       <c r="F22">
-        <v>85.57608344629358</v>
+        <v>63.37787788318785</v>
       </c>
       <c r="G22">
-        <v>1.985072262794981</v>
+        <v>3.749927678163144</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>34.30651592503196</v>
+        <v>25.93219210151801</v>
       </c>
       <c r="L22">
-        <v>6.868228726588057</v>
+        <v>9.537422655428095</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>15.46263414945</v>
+        <v>14.31349589858248</v>
       </c>
       <c r="D23">
-        <v>12.78690835630854</v>
+        <v>12.12081983832995</v>
       </c>
       <c r="E23">
-        <v>14.1182943689106</v>
+        <v>14.5515799381144</v>
       </c>
       <c r="F23">
-        <v>83.78538563954612</v>
+        <v>62.94637593852593</v>
       </c>
       <c r="G23">
-        <v>1.995184801947522</v>
+        <v>3.752177589541674</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>33.47693186543918</v>
+        <v>25.8042822895528</v>
       </c>
       <c r="L23">
-        <v>6.788362834658976</v>
+        <v>9.538037798991956</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>14.2697100349776</v>
+        <v>14.14036923714585</v>
       </c>
       <c r="D24">
-        <v>12.02584233420037</v>
+        <v>11.97421038526536</v>
       </c>
       <c r="E24">
-        <v>13.11422995045418</v>
+        <v>14.44328658333674</v>
       </c>
       <c r="F24">
-        <v>77.11301824474835</v>
+        <v>61.30740240059313</v>
       </c>
       <c r="G24">
-        <v>2.032119141758369</v>
+        <v>3.760987385680506</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>30.34298323315286</v>
+        <v>25.33218749318654</v>
       </c>
       <c r="L24">
-        <v>6.506102266958018</v>
+        <v>9.543630229097793</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.01280991616001</v>
+        <v>13.96673668062704</v>
       </c>
       <c r="D25">
-        <v>11.24984725650611</v>
+        <v>11.81840815216304</v>
       </c>
       <c r="E25">
-        <v>12.07338026064844</v>
+        <v>14.34017615439287</v>
       </c>
       <c r="F25">
-        <v>70.01792969311805</v>
+        <v>59.53656133028802</v>
       </c>
       <c r="G25">
-        <v>2.070277722299541</v>
+        <v>3.771115070461174</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>26.91459713116483</v>
+        <v>24.85195885945865</v>
       </c>
       <c r="L25">
-        <v>6.235731658458747</v>
+        <v>9.55659514054239</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_127/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_127/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.85067314828899</v>
+        <v>12.09878262343307</v>
       </c>
       <c r="D2">
-        <v>11.70583913879577</v>
+        <v>10.7034566224654</v>
       </c>
       <c r="E2">
-        <v>14.27620259265731</v>
+        <v>11.33040202948899</v>
       </c>
       <c r="F2">
-        <v>58.23728371935554</v>
+        <v>64.79533953950626</v>
       </c>
       <c r="G2">
-        <v>3.779119303145857</v>
+        <v>2.097823447222674</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>24.52572770006956</v>
+        <v>24.30270040883819</v>
       </c>
       <c r="L2">
-        <v>9.572060380437346</v>
+        <v>6.059522712074579</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.77958305940087</v>
+        <v>11.4828339316587</v>
       </c>
       <c r="D3">
-        <v>11.63094892508382</v>
+        <v>10.34422935068878</v>
       </c>
       <c r="E3">
-        <v>14.24035418084026</v>
+        <v>10.83803458209706</v>
       </c>
       <c r="F3">
-        <v>57.36330371113632</v>
+        <v>61.23234685547791</v>
       </c>
       <c r="G3">
-        <v>3.784890121893208</v>
+        <v>2.116470468501447</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>24.32282442107993</v>
+        <v>22.49228431505493</v>
       </c>
       <c r="L3">
-        <v>9.586209900224526</v>
+        <v>5.952078905736659</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.73972747118372</v>
+        <v>11.10591477209087</v>
       </c>
       <c r="D4">
-        <v>11.58567330129396</v>
+        <v>10.12806257456378</v>
       </c>
       <c r="E4">
-        <v>14.22205670809225</v>
+        <v>10.54069029631366</v>
       </c>
       <c r="F4">
-        <v>56.83115509786165</v>
+        <v>59.02892971549449</v>
       </c>
       <c r="G4">
-        <v>3.788605825818031</v>
+        <v>2.127992762463338</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>24.20754881628714</v>
+        <v>21.52808182872711</v>
       </c>
       <c r="L4">
-        <v>9.596698906697124</v>
+        <v>5.891420323834453</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.72444831557754</v>
+        <v>10.95263921761956</v>
       </c>
       <c r="D5">
-        <v>11.5674035269186</v>
+        <v>10.04095594592102</v>
       </c>
       <c r="E5">
-        <v>14.21553521735095</v>
+        <v>10.4207419787834</v>
       </c>
       <c r="F5">
-        <v>56.61561534877201</v>
+        <v>58.12682831890936</v>
       </c>
       <c r="G5">
-        <v>3.790163581357405</v>
+        <v>2.132717080066567</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>24.16296045073804</v>
+        <v>21.13181880989306</v>
       </c>
       <c r="L5">
-        <v>9.601424923188132</v>
+        <v>5.86796082068282</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.72196955788665</v>
+        <v>10.92720844275282</v>
       </c>
       <c r="D6">
-        <v>11.56438080746714</v>
+        <v>10.02654818539639</v>
       </c>
       <c r="E6">
-        <v>14.21450880557876</v>
+        <v>10.4008983356383</v>
       </c>
       <c r="F6">
-        <v>56.57991002321746</v>
+        <v>57.97678081634429</v>
       </c>
       <c r="G6">
-        <v>3.790424883949386</v>
+        <v>2.133503576158613</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>24.15570204254071</v>
+        <v>21.06582028243354</v>
       </c>
       <c r="L6">
-        <v>9.6022369159367</v>
+        <v>5.864139365002525</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.73951750489003</v>
+        <v>11.10384629941087</v>
       </c>
       <c r="D7">
-        <v>11.58542617519076</v>
+        <v>10.12688398886685</v>
       </c>
       <c r="E7">
-        <v>14.22196497097555</v>
+        <v>10.53906769385459</v>
       </c>
       <c r="F7">
-        <v>56.82824268132601</v>
+        <v>59.01678072179615</v>
       </c>
       <c r="G7">
-        <v>3.788626657516721</v>
+        <v>2.128056346370741</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>24.20693775758014</v>
+        <v>21.52275112947118</v>
       </c>
       <c r="L7">
-        <v>9.596760816339305</v>
+        <v>5.891098936842904</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.82537925375347</v>
+        <v>11.88612147051189</v>
       </c>
       <c r="D8">
-        <v>11.67987185044963</v>
+        <v>10.57859904795851</v>
       </c>
       <c r="E8">
-        <v>14.26307221847948</v>
+        <v>11.15957205772506</v>
       </c>
       <c r="F8">
-        <v>57.93512007887056</v>
+        <v>63.56984105693194</v>
       </c>
       <c r="G8">
-        <v>3.781073436406262</v>
+        <v>2.104244621793863</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>24.45386452858575</v>
+        <v>23.67574045140837</v>
       </c>
       <c r="L8">
-        <v>9.576564573130169</v>
+        <v>6.02132463411312</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>14.02342681607906</v>
+        <v>13.43372443872951</v>
       </c>
       <c r="D9">
-        <v>11.87056542456591</v>
+        <v>11.50662608924396</v>
       </c>
       <c r="E9">
-        <v>14.37306271781191</v>
+        <v>12.41971822411418</v>
       </c>
       <c r="F9">
-        <v>60.13284572615826</v>
+        <v>72.40326919020139</v>
       </c>
       <c r="G9">
-        <v>3.767619184080336</v>
+        <v>2.057559719376195</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>25.00963187690923</v>
+        <v>28.08049627191231</v>
       </c>
       <c r="L9">
-        <v>9.551305388873722</v>
+        <v>6.322896417622167</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>14.18635364799029</v>
+        <v>14.5902161963667</v>
       </c>
       <c r="D10">
-        <v>12.01382645067255</v>
+        <v>12.22804761977236</v>
       </c>
       <c r="E10">
-        <v>14.47161091810936</v>
+        <v>13.38259868444078</v>
       </c>
       <c r="F10">
-        <v>61.75281657428474</v>
+        <v>78.91056237784689</v>
       </c>
       <c r="G10">
-        <v>3.758547479728166</v>
+        <v>2.022278806228425</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.45816083498346</v>
+        <v>31.194640193509</v>
       </c>
       <c r="L10">
-        <v>9.541564868760586</v>
+        <v>6.579649664629716</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>14.26408703142667</v>
+        <v>15.12535550272034</v>
       </c>
       <c r="D11">
-        <v>12.07963885073523</v>
+        <v>12.56941039632492</v>
       </c>
       <c r="E11">
-        <v>14.52023888905549</v>
+        <v>13.83301627471094</v>
       </c>
       <c r="F11">
-        <v>62.48858000176957</v>
+        <v>81.90362121997701</v>
       </c>
       <c r="G11">
-        <v>3.754593957086378</v>
+        <v>2.005717007693109</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.67013579783285</v>
+        <v>32.60031217333187</v>
       </c>
       <c r="L11">
-        <v>9.539062260670716</v>
+        <v>6.706247876221978</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>14.2940267033328</v>
+        <v>15.32991967937403</v>
       </c>
       <c r="D12">
-        <v>12.10464800408007</v>
+        <v>12.70111233879553</v>
       </c>
       <c r="E12">
-        <v>14.53919291839818</v>
+        <v>14.00591784979226</v>
       </c>
       <c r="F12">
-        <v>62.76683361687009</v>
+        <v>83.04533329157059</v>
       </c>
       <c r="G12">
-        <v>3.753121526026335</v>
+        <v>1.999338231494862</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>25.75147512722769</v>
+        <v>33.13279445907434</v>
       </c>
       <c r="L12">
-        <v>9.538392871069796</v>
+        <v>6.755843507446044</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>14.2875565279191</v>
+        <v>15.28576548122916</v>
       </c>
       <c r="D13">
-        <v>12.09925802854014</v>
+        <v>12.67262918945294</v>
       </c>
       <c r="E13">
-        <v>14.53508693897667</v>
+        <v>13.96856532941466</v>
       </c>
       <c r="F13">
-        <v>62.70692597213653</v>
+        <v>82.79900541209621</v>
       </c>
       <c r="G13">
-        <v>3.753437546324252</v>
+        <v>2.000717418759845</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.73391087365728</v>
+        <v>33.01807299933746</v>
       </c>
       <c r="L13">
-        <v>9.538524644004937</v>
+        <v>6.745083827010455</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>14.26654018839475</v>
+        <v>15.14214231642481</v>
       </c>
       <c r="D14">
-        <v>12.08169464587243</v>
+        <v>12.5801930802555</v>
       </c>
       <c r="E14">
-        <v>14.52178747267073</v>
+        <v>13.84719021346664</v>
       </c>
       <c r="F14">
-        <v>62.51148049214322</v>
+        <v>81.99735920228478</v>
       </c>
       <c r="G14">
-        <v>3.754472325950581</v>
+        <v>2.005194595847835</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.67680662968532</v>
+        <v>32.64410417621685</v>
       </c>
       <c r="L14">
-        <v>9.539001606780763</v>
+        <v>6.710293278128986</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>14.25373216934634</v>
+        <v>15.0544410194546</v>
       </c>
       <c r="D15">
-        <v>12.07094780137712</v>
+        <v>12.52390936387138</v>
       </c>
       <c r="E15">
-        <v>14.51371124039076</v>
+        <v>13.7731689117954</v>
       </c>
       <c r="F15">
-        <v>62.39171136526662</v>
+        <v>81.50753640445471</v>
       </c>
       <c r="G15">
-        <v>3.755109365854728</v>
+        <v>2.007921883403852</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>25.64196566972176</v>
+        <v>32.41512251543297</v>
       </c>
       <c r="L15">
-        <v>9.539330030321581</v>
+        <v>6.689207250619007</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>14.18134499505196</v>
+        <v>14.55547349136945</v>
       </c>
       <c r="D16">
-        <v>12.00953796422845</v>
+        <v>12.20604645847357</v>
       </c>
       <c r="E16">
-        <v>14.46850885671782</v>
+        <v>13.35345535994667</v>
       </c>
       <c r="F16">
-        <v>61.70469230814918</v>
+        <v>78.71589973603795</v>
       </c>
       <c r="G16">
-        <v>3.758809318178947</v>
+        <v>2.023348187927632</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.44446134817058</v>
+        <v>31.10269509360662</v>
       </c>
       <c r="L16">
-        <v>9.541767311170366</v>
+        <v>6.571592836348715</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>14.13785289748033</v>
+        <v>14.25206352633668</v>
       </c>
       <c r="D17">
-        <v>11.9720260954897</v>
+        <v>12.01475899666053</v>
       </c>
       <c r="E17">
-        <v>14.44174707061081</v>
+        <v>13.09948607102543</v>
       </c>
       <c r="F17">
-        <v>61.28278785463736</v>
+        <v>77.01393026345134</v>
       </c>
       <c r="G17">
-        <v>3.761123327263604</v>
+        <v>2.032659369631964</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.32528088841382</v>
+        <v>30.29586054988387</v>
       </c>
       <c r="L17">
-        <v>9.543757146424845</v>
+        <v>6.502104222861795</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>14.11317890843372</v>
+        <v>14.0783535227628</v>
       </c>
       <c r="D18">
-        <v>11.9505110253703</v>
+        <v>11.905936102785</v>
       </c>
       <c r="E18">
-        <v>14.42671231862743</v>
+        <v>12.95453355522393</v>
       </c>
       <c r="F18">
-        <v>61.04002092242391</v>
+        <v>76.03782174804343</v>
       </c>
       <c r="G18">
-        <v>3.762470604180904</v>
+        <v>2.037969139630671</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>25.25748297641166</v>
+        <v>29.83062862196815</v>
       </c>
       <c r="L18">
-        <v>9.545083103505531</v>
+        <v>6.463040422546086</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>14.10488385852524</v>
+        <v>14.01966088916667</v>
       </c>
       <c r="D19">
-        <v>11.9432369742781</v>
+        <v>11.86928289136088</v>
       </c>
       <c r="E19">
-        <v>14.4216834656308</v>
+        <v>12.90563432412248</v>
       </c>
       <c r="F19">
-        <v>60.95781332064624</v>
+        <v>75.70772175383061</v>
       </c>
       <c r="G19">
-        <v>3.762929578960858</v>
+        <v>2.039759954363499</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>25.23465901478771</v>
+        <v>29.67286350190352</v>
       </c>
       <c r="L19">
-        <v>9.545563183511414</v>
+        <v>6.449962993252891</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>14.14244747566851</v>
+        <v>14.28427510080244</v>
       </c>
       <c r="D20">
-        <v>11.97601304385462</v>
+        <v>12.03499422905023</v>
       </c>
       <c r="E20">
-        <v>14.44455890918249</v>
+        <v>13.12640181345701</v>
       </c>
       <c r="F20">
-        <v>61.32771194958996</v>
+        <v>77.19479379745322</v>
       </c>
       <c r="G20">
-        <v>3.760875309639312</v>
+        <v>2.031673130334279</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.33789058817491</v>
+        <v>30.38185851310723</v>
       </c>
       <c r="L20">
-        <v>9.543526537565727</v>
+        <v>6.509406260938999</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>14.27269966154724</v>
+        <v>15.18426979230656</v>
       </c>
       <c r="D21">
-        <v>12.08685110502453</v>
+        <v>12.60727255288285</v>
       </c>
       <c r="E21">
-        <v>14.52567925750363</v>
+        <v>13.88277211688413</v>
       </c>
       <c r="F21">
-        <v>62.56889898052759</v>
+        <v>82.23256205539366</v>
       </c>
       <c r="G21">
-        <v>3.754167718060484</v>
+        <v>2.003882763612725</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.69355110323733</v>
+        <v>32.75392626219545</v>
       </c>
       <c r="L21">
-        <v>9.538853950949974</v>
+        <v>6.720464835071017</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>14.36075480556086</v>
+        <v>15.78411859592458</v>
       </c>
       <c r="D22">
-        <v>12.159797299782</v>
+        <v>12.99587289749486</v>
       </c>
       <c r="E22">
-        <v>14.5818381253173</v>
+        <v>14.39115414086135</v>
       </c>
       <c r="F22">
-        <v>63.37787788318785</v>
+        <v>85.5760834462931</v>
       </c>
       <c r="G22">
-        <v>3.749927678163144</v>
+        <v>1.985072262794848</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.93219210151801</v>
+        <v>34.30651592503191</v>
       </c>
       <c r="L22">
-        <v>9.537422655428095</v>
+        <v>6.86822872658805</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>14.31349589858248</v>
+        <v>15.46263414944994</v>
       </c>
       <c r="D23">
-        <v>12.12081983832995</v>
+        <v>12.78690835630864</v>
       </c>
       <c r="E23">
-        <v>14.5515799381144</v>
+        <v>14.11829436891061</v>
       </c>
       <c r="F23">
-        <v>62.94637593852593</v>
+        <v>83.7853856395464</v>
       </c>
       <c r="G23">
-        <v>3.752177589541674</v>
+        <v>1.995184801947513</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.8042822895528</v>
+        <v>33.47693186543929</v>
       </c>
       <c r="L23">
-        <v>9.538037798991956</v>
+        <v>6.788362834658994</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>14.14036923714585</v>
+        <v>14.26971003497752</v>
       </c>
       <c r="D24">
-        <v>11.97421038526536</v>
+        <v>12.02584233420044</v>
       </c>
       <c r="E24">
-        <v>14.44328658333674</v>
+        <v>13.11422995045418</v>
       </c>
       <c r="F24">
-        <v>61.30740240059313</v>
+        <v>77.11301824474835</v>
       </c>
       <c r="G24">
-        <v>3.760987385680506</v>
+        <v>2.032119141758378</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.33218749318654</v>
+        <v>30.34298323315282</v>
       </c>
       <c r="L24">
-        <v>9.543630229097793</v>
+        <v>6.506102266958037</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.96673668062704</v>
+        <v>13.01280991616001</v>
       </c>
       <c r="D25">
-        <v>11.81840815216304</v>
+        <v>11.24984725650605</v>
       </c>
       <c r="E25">
-        <v>14.34017615439287</v>
+        <v>12.07338026064851</v>
       </c>
       <c r="F25">
-        <v>59.53656133028802</v>
+        <v>70.0179296931184</v>
       </c>
       <c r="G25">
-        <v>3.771115070461174</v>
+        <v>2.07027772229967</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>24.85195885945865</v>
+        <v>26.9145971311649</v>
       </c>
       <c r="L25">
-        <v>9.55659514054239</v>
+        <v>6.235731658458778</v>
       </c>
       <c r="M25">
         <v>0</v>
